--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H2">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N2">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O2">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P2">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q2">
-        <v>781.8769781185852</v>
+        <v>868.8909807985796</v>
       </c>
       <c r="R2">
-        <v>781.8769781185852</v>
+        <v>7820.018827187216</v>
       </c>
       <c r="S2">
-        <v>0.02156467630786909</v>
+        <v>0.02239399555195981</v>
       </c>
       <c r="T2">
-        <v>0.02156467630786909</v>
+        <v>0.02239399555195981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H3">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N3">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O3">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P3">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q3">
-        <v>1553.499891989568</v>
+        <v>1732.662276857841</v>
       </c>
       <c r="R3">
-        <v>1553.499891989568</v>
+        <v>15593.96049172057</v>
       </c>
       <c r="S3">
-        <v>0.04284653884512209</v>
+        <v>0.04465604106667289</v>
       </c>
       <c r="T3">
-        <v>0.04284653884512209</v>
+        <v>0.0446560410666729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H4">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N4">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O4">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P4">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q4">
-        <v>1237.18022877228</v>
+        <v>1374.58800263126</v>
       </c>
       <c r="R4">
-        <v>1237.18022877228</v>
+        <v>12371.29202368134</v>
       </c>
       <c r="S4">
-        <v>0.03412223650857163</v>
+        <v>0.03542736464868147</v>
       </c>
       <c r="T4">
-        <v>0.03412223650857163</v>
+        <v>0.03542736464868147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H5">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N5">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O5">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P5">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q5">
-        <v>609.3939090120115</v>
+        <v>753.9475846566213</v>
       </c>
       <c r="R5">
-        <v>609.3939090120115</v>
+        <v>6785.528261909592</v>
       </c>
       <c r="S5">
-        <v>0.01680748092040374</v>
+        <v>0.01943155036745068</v>
       </c>
       <c r="T5">
-        <v>0.01680748092040374</v>
+        <v>0.01943155036745068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H6">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N6">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O6">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P6">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q6">
-        <v>386.9346194087682</v>
+        <v>479.0176746975649</v>
       </c>
       <c r="R6">
-        <v>386.9346194087682</v>
+        <v>4311.159072278084</v>
       </c>
       <c r="S6">
-        <v>0.01067190882117657</v>
+        <v>0.01234576018573507</v>
       </c>
       <c r="T6">
-        <v>0.01067190882117657</v>
+        <v>0.01234576018573507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H7">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N7">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O7">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P7">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q7">
-        <v>1164.461775355774</v>
+        <v>1176.86902487525</v>
       </c>
       <c r="R7">
-        <v>1164.461775355774</v>
+        <v>10591.82122387725</v>
       </c>
       <c r="S7">
-        <v>0.03211661420043153</v>
+        <v>0.03033153789221459</v>
       </c>
       <c r="T7">
-        <v>0.03211661420043153</v>
+        <v>0.0303315378922146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H8">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N8">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O8">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P8">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q8">
-        <v>2313.652010312563</v>
+        <v>2346.803694900491</v>
       </c>
       <c r="R8">
-        <v>2313.652010312563</v>
+        <v>21121.23325410442</v>
       </c>
       <c r="S8">
-        <v>0.06381202937001408</v>
+        <v>0.06048435611176774</v>
       </c>
       <c r="T8">
-        <v>0.06381202937001408</v>
+        <v>0.06048435611176774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H9">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N9">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O9">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P9">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q9">
-        <v>1842.552122583066</v>
+        <v>1861.81014420827</v>
       </c>
       <c r="R9">
-        <v>1842.552122583066</v>
+        <v>16756.29129787443</v>
       </c>
       <c r="S9">
-        <v>0.05081878763011051</v>
+        <v>0.0479845792042566</v>
       </c>
       <c r="T9">
-        <v>0.05081878763011051</v>
+        <v>0.0479845792042566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H10">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N10">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O10">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P10">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q10">
-        <v>907.580006878648</v>
+        <v>1021.183990132331</v>
       </c>
       <c r="R10">
-        <v>907.580006878648</v>
+        <v>9190.655911190976</v>
       </c>
       <c r="S10">
-        <v>0.02503164771384695</v>
+        <v>0.02631905525332778</v>
       </c>
       <c r="T10">
-        <v>0.02503164771384695</v>
+        <v>0.02631905525332778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H11">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N11">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O11">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P11">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q11">
-        <v>576.2678611506685</v>
+        <v>648.8052887845726</v>
       </c>
       <c r="R11">
-        <v>576.2678611506685</v>
+        <v>5839.247599061152</v>
       </c>
       <c r="S11">
-        <v>0.0158938429447624</v>
+        <v>0.016721709710666</v>
       </c>
       <c r="T11">
-        <v>0.0158938429447624</v>
+        <v>0.016721709710666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H12">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N12">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O12">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P12">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q12">
-        <v>2355.971235257145</v>
+        <v>2446.907961240286</v>
       </c>
       <c r="R12">
-        <v>2355.971235257145</v>
+        <v>22022.17165116257</v>
       </c>
       <c r="S12">
-        <v>0.0649792211573024</v>
+        <v>0.06306435123737629</v>
       </c>
       <c r="T12">
-        <v>0.0649792211573024</v>
+        <v>0.0630643512373763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H13">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N13">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O13">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P13">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q13">
-        <v>4681.044668062093</v>
+        <v>4879.398236459521</v>
       </c>
       <c r="R13">
-        <v>4681.044668062093</v>
+        <v>43914.58412813569</v>
       </c>
       <c r="S13">
-        <v>0.1291062607986463</v>
+        <v>0.1257571143195525</v>
       </c>
       <c r="T13">
-        <v>0.1291062607986463</v>
+        <v>0.1257571143195525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H14">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N14">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O14">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P14">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q14">
-        <v>3727.902359818903</v>
+        <v>3871.015353355953</v>
       </c>
       <c r="R14">
-        <v>3727.902359818903</v>
+        <v>34839.13818020358</v>
       </c>
       <c r="S14">
-        <v>0.1028179751375712</v>
+        <v>0.09976798300397671</v>
       </c>
       <c r="T14">
-        <v>0.1028179751375712</v>
+        <v>0.09976798300397671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H15">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N15">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O15">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P15">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q15">
-        <v>1836.240944231329</v>
+        <v>2123.212679177101</v>
       </c>
       <c r="R15">
-        <v>1836.240944231329</v>
+        <v>19108.91411259391</v>
       </c>
       <c r="S15">
-        <v>0.05064472122057902</v>
+        <v>0.05472172728695723</v>
       </c>
       <c r="T15">
-        <v>0.05064472122057902</v>
+        <v>0.05472172728695724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H16">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N16">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O16">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P16">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q16">
-        <v>1165.921057614217</v>
+        <v>1348.974943571191</v>
       </c>
       <c r="R16">
-        <v>1165.921057614217</v>
+        <v>12140.77449214072</v>
       </c>
       <c r="S16">
-        <v>0.0321568621555777</v>
+        <v>0.03476723726407436</v>
       </c>
       <c r="T16">
-        <v>0.0321568621555777</v>
+        <v>0.03476723726407436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H17">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N17">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O17">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P17">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q17">
-        <v>1599.853051086682</v>
+        <v>1648.609884676335</v>
       </c>
       <c r="R17">
-        <v>1599.853051086682</v>
+        <v>14837.48896208701</v>
       </c>
       <c r="S17">
-        <v>0.04412498916371532</v>
+        <v>0.04248975215558961</v>
       </c>
       <c r="T17">
-        <v>0.04412498916371532</v>
+        <v>0.04248975215558962</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H18">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N18">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O18">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P18">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q18">
-        <v>3178.72454569879</v>
+        <v>3287.505820129825</v>
       </c>
       <c r="R18">
-        <v>3178.72454569879</v>
+        <v>29587.55238116843</v>
       </c>
       <c r="S18">
-        <v>0.08767129333417477</v>
+        <v>0.08472914593424173</v>
       </c>
       <c r="T18">
-        <v>0.08767129333417477</v>
+        <v>0.08472914593424175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H19">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N19">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O19">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P19">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q19">
-        <v>2531.480807259753</v>
+        <v>2608.105525980505</v>
       </c>
       <c r="R19">
-        <v>2531.480807259753</v>
+        <v>23472.94973382454</v>
       </c>
       <c r="S19">
-        <v>0.06981988946585931</v>
+        <v>0.06721890874522551</v>
       </c>
       <c r="T19">
-        <v>0.06981988946585931</v>
+        <v>0.06721890874522551</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H20">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N20">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O20">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P20">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q20">
-        <v>1246.923406022885</v>
+        <v>1430.519441518855</v>
       </c>
       <c r="R20">
-        <v>1246.923406022885</v>
+        <v>12874.67497366969</v>
       </c>
       <c r="S20">
-        <v>0.0343909596830601</v>
+        <v>0.03686889001992231</v>
       </c>
       <c r="T20">
-        <v>0.0343909596830601</v>
+        <v>0.03686889001992232</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H21">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N21">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O21">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P21">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q21">
-        <v>791.7339284266459</v>
+        <v>908.8749807430039</v>
       </c>
       <c r="R21">
-        <v>791.7339284266459</v>
+        <v>8179.874826687034</v>
       </c>
       <c r="S21">
-        <v>0.02183653741738476</v>
+        <v>0.02342450632568432</v>
       </c>
       <c r="T21">
-        <v>0.02183653741738476</v>
+        <v>0.02342450632568432</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H22">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N22">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O22">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P22">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q22">
-        <v>302.5774406951196</v>
+        <v>330.68107645296</v>
       </c>
       <c r="R22">
-        <v>302.5774406951196</v>
+        <v>2976.12968807664</v>
       </c>
       <c r="S22">
-        <v>0.008345282888817944</v>
+        <v>0.008522669378382587</v>
       </c>
       <c r="T22">
-        <v>0.008345282888817944</v>
+        <v>0.008522669378382589</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H23">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N23">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O23">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P23">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q23">
-        <v>601.1866759006383</v>
+        <v>659.4137118493201</v>
       </c>
       <c r="R23">
-        <v>601.1866759006383</v>
+        <v>5934.72340664388</v>
       </c>
       <c r="S23">
-        <v>0.01658112008566492</v>
+        <v>0.01699512143224576</v>
       </c>
       <c r="T23">
-        <v>0.01658112008566492</v>
+        <v>0.01699512143224577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H24">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N24">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O24">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P24">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q24">
-        <v>478.7745870217239</v>
+        <v>523.13840336064</v>
       </c>
       <c r="R24">
-        <v>478.7745870217239</v>
+        <v>4708.24563024576</v>
       </c>
       <c r="S24">
-        <v>0.01320491494506092</v>
+        <v>0.01348288719391513</v>
       </c>
       <c r="T24">
-        <v>0.01320491494506092</v>
+        <v>0.01348288719391513</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H25">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N25">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O25">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P25">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q25">
-        <v>235.8284672964028</v>
+        <v>286.93611096552</v>
       </c>
       <c r="R25">
-        <v>235.8284672964028</v>
+        <v>2582.42499868968</v>
       </c>
       <c r="S25">
-        <v>0.006504302727604424</v>
+        <v>0.007395226944067049</v>
       </c>
       <c r="T25">
-        <v>0.006504302727604424</v>
+        <v>0.007395226944067051</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H26">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N26">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O26">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P26">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q26">
-        <v>149.7392686235204</v>
+        <v>182.30374559004</v>
       </c>
       <c r="R26">
-        <v>149.7392686235204</v>
+        <v>1640.73371031036</v>
       </c>
       <c r="S26">
-        <v>0.004129906556672566</v>
+        <v>0.004698528766056266</v>
       </c>
       <c r="T26">
-        <v>0.004129906556672566</v>
+        <v>0.004698528766056266</v>
       </c>
     </row>
   </sheetData>
